--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9757909409247949</v>
+        <v>0.9886852102940978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7081542292509241</v>
+        <v>0.7543448741129067</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9295821068473584</v>
+        <v>0.9844236281657666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775842543159317</v>
+        <v>0.9683751292811775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9396902923499463</v>
+        <v>0.9802924990218993</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1618860895083633</v>
+        <v>0.07566205086318364</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95157401282528</v>
+        <v>1.642696957944839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8706374824007601</v>
+        <v>0.2421029839716883</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03270865664432746</v>
+        <v>0.2307850351709245</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4516730695225438</v>
+        <v>0.2364440095713063</v>
       </c>
       <c r="L2" t="n">
-        <v>1.464695616676467</v>
+        <v>0.1340025149269516</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4023507046201898</v>
+        <v>0.2750673569567709</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014171156531827</v>
+        <v>1.006623291535162</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4194796070966503</v>
+        <v>0.2867775438103466</v>
       </c>
       <c r="P2" t="n">
-        <v>133.6417246845189</v>
+        <v>135.1629571076753</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.8686533009519</v>
+        <v>214.3898857241084</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9756217457822834</v>
+        <v>0.9886851924793799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7079494427912787</v>
+        <v>0.7543448726015567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9274635004781154</v>
+        <v>0.9844235958880764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9764719407485732</v>
+        <v>0.9683751235934527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9378331422502602</v>
+        <v>0.9802924763842624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1630174982054099</v>
+        <v>0.0756621699902842</v>
       </c>
       <c r="H3" t="n">
-        <v>1.952943420823883</v>
+        <v>1.642696968051244</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8968316502881416</v>
+        <v>0.2421034856626596</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03433172477992881</v>
+        <v>0.2307850766775539</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4655816875340352</v>
+        <v>0.2364442811701068</v>
       </c>
       <c r="L3" t="n">
-        <v>1.496246065607685</v>
+        <v>0.134001674328437</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4037542547211236</v>
+        <v>0.2750675734983755</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014270197590859</v>
+        <v>1.00662330196329</v>
       </c>
       <c r="O3" t="n">
-        <v>0.42094290923113</v>
+        <v>0.2867777695705755</v>
       </c>
       <c r="P3" t="n">
-        <v>133.6277954659673</v>
+        <v>135.1629539587518</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.8547240824003</v>
+        <v>214.3898825751849</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9753733973967439</v>
+        <v>0.9886851731650472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.707684050939867</v>
+        <v>0.7543448685303917</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9254455835074227</v>
+        <v>0.984423569156612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9749673277870008</v>
+        <v>0.9683750496755449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9360208865407111</v>
+        <v>0.9802924365886857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.164678205003052</v>
+        <v>0.07566229914531587</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95471809735629</v>
+        <v>1.642696995275142</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9217809078191694</v>
+        <v>0.2421039011488433</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03652722920062959</v>
+        <v>0.2307856160994253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4791540812826731</v>
+        <v>0.2364447586241343</v>
       </c>
       <c r="L4" t="n">
-        <v>1.525046160587498</v>
+        <v>0.1340012375317811</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4058056246567462</v>
+        <v>0.2750678082679176</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014415572255565</v>
+        <v>1.006623313269241</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4230816102318332</v>
+        <v>0.2867780143347431</v>
       </c>
       <c r="P4" t="n">
-        <v>133.6075239640969</v>
+        <v>135.1629505447625</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.8344525805299</v>
+        <v>214.3898791611955</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9750722037427236</v>
+        <v>0.9886851665894588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7073843417654554</v>
+        <v>0.7543448453988196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9235407653897815</v>
+        <v>0.9844235619859062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9731925522774129</v>
+        <v>0.9683750567217266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9342756698622035</v>
+        <v>0.9802924340867848</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1666922883543543</v>
+        <v>0.0756623431163061</v>
       </c>
       <c r="H5" t="n">
-        <v>1.956722253985615</v>
+        <v>1.642697149956072</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9453318261458459</v>
+        <v>0.2421040126028632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03911694999698623</v>
+        <v>0.2307855646793482</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4922244045337397</v>
+        <v>0.2364447886411057</v>
       </c>
       <c r="L5" t="n">
-        <v>1.551073220125617</v>
+        <v>0.1340003204301987</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4082796692885335</v>
+        <v>0.2750678881954527</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014591880735967</v>
+        <v>1.006623317118366</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4256609800655742</v>
+        <v>0.2867780976649589</v>
       </c>
       <c r="P5" t="n">
-        <v>133.5832115018344</v>
+        <v>135.1629493824669</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.8101401182674</v>
+        <v>214.3898779988999</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9747387763204015</v>
+        <v>0.9886851680370951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7070687184098334</v>
+        <v>0.7543448327568568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9217565798160142</v>
+        <v>0.9844235381238531</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9712506283542027</v>
+        <v>0.9683750974388725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9326137496058271</v>
+        <v>0.9802924310132543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1689219190627144</v>
+        <v>0.07566233343595569</v>
       </c>
       <c r="H6" t="n">
-        <v>1.958832828817971</v>
+        <v>1.642697234492935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9673912597150006</v>
+        <v>0.2421043834898924</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04195057077984647</v>
+        <v>0.2307852675427043</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5046709020006944</v>
+        <v>0.2364448255162984</v>
       </c>
       <c r="L6" t="n">
-        <v>1.574584685747447</v>
+        <v>0.134000689436382</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4110011180796403</v>
+        <v>0.275067870599159</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014787057763668</v>
+        <v>1.006623316270969</v>
       </c>
       <c r="O6" t="n">
-        <v>0.428498286565894</v>
+        <v>0.2867780793195545</v>
       </c>
       <c r="P6" t="n">
-        <v>133.5566373764047</v>
+        <v>135.1629496383498</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.7835659928378</v>
+        <v>214.3898782547828</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9743887418297206</v>
+        <v>0.9886851516849912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7067498412399327</v>
+        <v>0.7543448190645186</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9200957483932565</v>
+        <v>0.9844235196557507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9692243014469485</v>
+        <v>0.9683750891106148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.931045419993883</v>
+        <v>0.9802924165177188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1712626013136592</v>
+        <v>0.07566244278254981</v>
       </c>
       <c r="H7" t="n">
-        <v>1.960965161921391</v>
+        <v>1.642697326053664</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9879255589373228</v>
+        <v>0.2421046705389396</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04490735089292769</v>
+        <v>0.230785328318834</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5164164779195864</v>
+        <v>0.2364449994288868</v>
       </c>
       <c r="L7" t="n">
-        <v>1.595819371467138</v>
+        <v>0.1340003755783941</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4138388591150657</v>
+        <v>0.2750680693620214</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014991956002115</v>
+        <v>1.006623325842932</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4314568361121311</v>
+        <v>0.2867782865441634</v>
       </c>
       <c r="P7" t="n">
-        <v>133.5291144404673</v>
+        <v>135.162946747968</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.7560430569004</v>
+        <v>214.3898753644011</v>
       </c>
     </row>
     <row r="8">
@@ -852,162 +852,162 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9740338485545481</v>
+        <v>0.9886851243440673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7064361754108326</v>
+        <v>0.7543448150810214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9185579394515344</v>
+        <v>0.9844234929242205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9671777316250102</v>
+        <v>0.9683749250772833</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9295766743646932</v>
+        <v>0.9802923493157456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1736357742788702</v>
+        <v>0.07566262561143348</v>
       </c>
       <c r="H8" t="n">
-        <v>1.963062646764882</v>
+        <v>1.642697352691328</v>
       </c>
       <c r="I8" t="n">
-        <v>1.006938824536339</v>
+        <v>0.2421050860261465</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0478936691063789</v>
+        <v>0.2307865253652512</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5274162468213589</v>
+        <v>0.2364458056956989</v>
       </c>
       <c r="L8" t="n">
-        <v>1.615008279929067</v>
+        <v>0.1339998834736447</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4166962614169585</v>
+        <v>0.2750684016957118</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015199698407094</v>
+        <v>1.006623341847375</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4344358839456538</v>
+        <v>0.2867786330259871</v>
       </c>
       <c r="P8" t="n">
-        <v>133.5015908499021</v>
+        <v>135.1629419152226</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.7285194663351</v>
+        <v>214.3898705316556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.97368265744291</v>
+        <v>0.9886851416137991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7061334027938634</v>
+        <v>0.7543447937919934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9171400555951217</v>
+        <v>0.9844235123777926</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9651594135163891</v>
+        <v>0.9683750303757146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9282096692952133</v>
+        <v>0.9802923939406732</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1759841908594808</v>
+        <v>0.0756625101286581</v>
       </c>
       <c r="H9" t="n">
-        <v>1.965087288648695</v>
+        <v>1.642697495051156</v>
       </c>
       <c r="I9" t="n">
-        <v>1.024469352301603</v>
+        <v>0.2421047836599797</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05083876292321467</v>
+        <v>0.2307857569414875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.537654057612409</v>
+        <v>0.2364452703007336</v>
       </c>
       <c r="L9" t="n">
-        <v>1.632348935055492</v>
+        <v>0.1340000099292576</v>
       </c>
       <c r="M9" t="n">
-        <v>0.419504697064861</v>
+        <v>0.2750681917791625</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015405273691955</v>
+        <v>1.006623331738264</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4373638805133508</v>
+        <v>0.2867784141728557</v>
       </c>
       <c r="P9" t="n">
-        <v>133.474722225281</v>
+        <v>135.1629449677961</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.701650841714</v>
+        <v>214.3898735842292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9733413481408737</v>
+        <v>0.9886851443343446</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7058451220974239</v>
+        <v>0.7543447917244545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.915837817251449</v>
+        <v>0.9844235065492219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9632036133249552</v>
+        <v>0.9683750270986546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9269442176068938</v>
+        <v>0.9802923891685837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1782665277337825</v>
+        <v>0.07566249193635692</v>
       </c>
       <c r="H10" t="n">
-        <v>1.967015022993196</v>
+        <v>1.642697508876799</v>
       </c>
       <c r="I10" t="n">
-        <v>1.040570054300218</v>
+        <v>0.2421048742532415</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05369263170938626</v>
+        <v>0.2307857808560957</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5471313121153204</v>
+        <v>0.2364453275546686</v>
       </c>
       <c r="L10" t="n">
-        <v>1.648021611327145</v>
+        <v>0.1339993564617966</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4222162097004123</v>
+        <v>0.2750681587104493</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015605064502903</v>
+        <v>1.006623330145749</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4401908278554024</v>
+        <v>0.2867783796963389</v>
       </c>
       <c r="P10" t="n">
-        <v>133.448951003554</v>
+        <v>135.1629454486763</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.6758796199871</v>
+        <v>214.3898740651094</v>
       </c>
     </row>
     <row r="11">
@@ -1017,877 +1017,877 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9730140588706413</v>
+        <v>0.9886851433885168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7055733436098939</v>
+        <v>0.7543447789877734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9146452129409545</v>
+        <v>0.9844235355239653</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9613338660608027</v>
+        <v>0.9683749710051255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9257776331262942</v>
+        <v>0.9802923908775141</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1804551125908547</v>
+        <v>0.07566249826111285</v>
       </c>
       <c r="H11" t="n">
-        <v>1.968832406990735</v>
+        <v>1.642697594047044</v>
       </c>
       <c r="I11" t="n">
-        <v>1.055315255667411</v>
+        <v>0.2421044238998539</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05642093359756751</v>
+        <v>0.2307861902031326</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5558681276917981</v>
+        <v>0.2364453070514932</v>
       </c>
       <c r="L11" t="n">
-        <v>1.662187816429539</v>
+        <v>0.1340000069146822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4248000854412046</v>
+        <v>0.2750681702071558</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015796648465966</v>
+        <v>1.006623330699405</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4428847045358403</v>
+        <v>0.286778391682484</v>
       </c>
       <c r="P11" t="n">
-        <v>133.4245464316866</v>
+        <v>135.162945281493</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6514750481196</v>
+        <v>214.389873897926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9727036852380301</v>
+        <v>0.9886851158227355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7053191368528036</v>
+        <v>0.7543447672426331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9135565068976552</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9595648847364234</v>
+        <v>0.9683748922882291</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9247066402421203</v>
+        <v>0.9802923484591149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1825305825012656</v>
+        <v>0.07566268259361866</v>
       </c>
       <c r="H12" t="n">
-        <v>1.970532288745912</v>
+        <v>1.642697672586851</v>
       </c>
       <c r="I12" t="n">
-        <v>1.06877587265233</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05900219962212248</v>
+        <v>0.230786764646008</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5638890361372261</v>
+        <v>0.236445815973268</v>
       </c>
       <c r="L12" t="n">
-        <v>1.674987947416134</v>
+        <v>0.1340010299670478</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4272359798767721</v>
+        <v>0.275068505273902</v>
       </c>
       <c r="N12" t="n">
-        <v>1.015978330592373</v>
+        <v>1.006623346835472</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4454243000405266</v>
+        <v>0.2867787410137153</v>
       </c>
       <c r="P12" t="n">
-        <v>133.4016750892987</v>
+        <v>135.1629404090057</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.6286037057318</v>
+        <v>214.3898690254387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.97241167507209</v>
+        <v>0.9886851187687699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7050828320889937</v>
+        <v>0.7543447664582238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9125643179772754</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9579054618058326</v>
+        <v>0.9683748907643256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9237259821429846</v>
+        <v>0.9802923479956577</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1844832558254895</v>
+        <v>0.07566266289347368</v>
       </c>
       <c r="H13" t="n">
-        <v>1.972112459789592</v>
+        <v>1.6426976778322</v>
       </c>
       <c r="I13" t="n">
-        <v>1.081043164742891</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06142359999083731</v>
+        <v>0.230786775766817</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5712334069035203</v>
+        <v>0.2364458215336726</v>
       </c>
       <c r="L13" t="n">
-        <v>1.686556397954136</v>
+        <v>0.1339993979587673</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4295151403914529</v>
+        <v>0.2750684694643747</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016149263372435</v>
+        <v>1.006623345110964</v>
       </c>
       <c r="O13" t="n">
-        <v>0.44780048913683</v>
+        <v>0.2867787036797023</v>
       </c>
       <c r="P13" t="n">
-        <v>133.3803931479067</v>
+        <v>135.1629409297418</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.6073217643398</v>
+        <v>214.3898695461749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_12</t>
+          <t>model_6_8_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9721387075013317</v>
+        <v>0.9886851187687699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7048642514646919</v>
+        <v>0.7543447664582238</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9116615361261095</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9563587812422916</v>
+        <v>0.9683748907643256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9228301245609678</v>
+        <v>0.9802923479956577</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1863085912280505</v>
+        <v>0.07566266289347368</v>
       </c>
       <c r="H14" t="n">
-        <v>1.973574109430769</v>
+        <v>1.6426976778322</v>
       </c>
       <c r="I14" t="n">
-        <v>1.092205039699196</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06368048870666848</v>
+        <v>0.230786775766817</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5779426873774446</v>
+        <v>0.2364458215336726</v>
       </c>
       <c r="L14" t="n">
-        <v>1.697010236593833</v>
+        <v>0.1339993979587673</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4316347891772054</v>
+        <v>0.2750684694643747</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016309049267513</v>
+        <v>1.006623345110964</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4500103757596698</v>
+        <v>0.2867787036797023</v>
       </c>
       <c r="P14" t="n">
-        <v>133.3607017748376</v>
+        <v>135.1629409297418</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.5876303912706</v>
+        <v>214.3898695461749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9718850705144531</v>
+        <v>0.9886851178682124</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7046627943601311</v>
+        <v>0.7543447650432058</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9108417237249664</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9549253977901132</v>
+        <v>0.9683748856072023</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9220137723671626</v>
+        <v>0.9802923464272476</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1880046629271989</v>
+        <v>0.0756626689155047</v>
       </c>
       <c r="H15" t="n">
-        <v>1.974921254016592</v>
+        <v>1.642697687294431</v>
       </c>
       <c r="I15" t="n">
-        <v>1.102341091390275</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06577205629660084</v>
+        <v>0.2307868134013384</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5840565339795027</v>
+        <v>0.2364458403509332</v>
       </c>
       <c r="L15" t="n">
-        <v>1.706449494303162</v>
+        <v>0.1340008725270817</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4335950448600616</v>
+        <v>0.2750684804107965</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016457519698857</v>
+        <v>1.00662334563812</v>
       </c>
       <c r="O15" t="n">
-        <v>0.452054083585234</v>
+        <v>0.2867787150921358</v>
       </c>
       <c r="P15" t="n">
-        <v>133.3425770273111</v>
+        <v>135.1629407705608</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.5695056437441</v>
+        <v>214.3898693869938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9716504777853145</v>
+        <v>0.9886851190347816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.704477819689281</v>
+        <v>0.7543447644999841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9100983289499228</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9536026488381346</v>
+        <v>0.9683749106838696</v>
       </c>
       <c r="F16" t="n">
-        <v>0.921271276094854</v>
+        <v>0.9802923540536892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1895733855871481</v>
+        <v>0.07566266111465184</v>
       </c>
       <c r="H16" t="n">
-        <v>1.976158180492296</v>
+        <v>1.642697690926957</v>
       </c>
       <c r="I16" t="n">
-        <v>1.111532325697312</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06770218799539422</v>
+        <v>0.2307866304023437</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5896172568463531</v>
+        <v>0.2364457488514359</v>
       </c>
       <c r="L16" t="n">
-        <v>1.714974107689832</v>
+        <v>0.1340008688597838</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4354002590572818</v>
+        <v>0.2750684662309583</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016594842272011</v>
+        <v>1.00662334495525</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4539361494881384</v>
+        <v>0.2867787003086326</v>
       </c>
       <c r="P16" t="n">
-        <v>133.32595814078</v>
+        <v>135.1629409767616</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.552886757213</v>
+        <v>214.3898695931947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.971434288763081</v>
+        <v>0.9886851259524102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7043083684624878</v>
+        <v>0.7543447644660292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9094248484031102</v>
+        <v>0.9844235373134318</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9523865621072625</v>
+        <v>0.9683748857307349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9205968862923178</v>
+        <v>0.9802923661025655</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1910190425742832</v>
+        <v>0.07566261485643709</v>
       </c>
       <c r="H17" t="n">
-        <v>1.977291301626114</v>
+        <v>1.642697691154014</v>
       </c>
       <c r="I17" t="n">
-        <v>1.119859149768174</v>
+        <v>0.2421043960862402</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0694766800819141</v>
+        <v>0.2307868124998489</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5946679149250439</v>
+        <v>0.2364456042930445</v>
       </c>
       <c r="L17" t="n">
-        <v>1.722667459782557</v>
+        <v>0.1339999188702367</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4370572531994901</v>
+        <v>0.2750683821460349</v>
       </c>
       <c r="N17" t="n">
-        <v>1.016721391943562</v>
+        <v>1.006623340905906</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4556636853014313</v>
+        <v>0.28677861264404</v>
       </c>
       <c r="P17" t="n">
-        <v>133.3107643131267</v>
+        <v>135.1629421995108</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.5376929295598</v>
+        <v>214.3898708159439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9712356796783802</v>
+        <v>0.9886851259523456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7041535418833527</v>
+        <v>0.7543447640238555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9088152252232808</v>
+        <v>0.9844235373134318</v>
       </c>
       <c r="E18" t="n">
-        <v>0.951272089268971</v>
+        <v>0.9683748857307349</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9199851120348507</v>
+        <v>0.9802923661025655</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1923471424381884</v>
+        <v>0.07566261485686945</v>
       </c>
       <c r="H18" t="n">
-        <v>1.978326627673701</v>
+        <v>1.642697694110831</v>
       </c>
       <c r="I18" t="n">
-        <v>1.127396449831232</v>
+        <v>0.2421043960862402</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07110289898718183</v>
+        <v>0.2307868124998489</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5992496309951734</v>
+        <v>0.2364456042930445</v>
       </c>
       <c r="L18" t="n">
-        <v>1.729615021638989</v>
+        <v>0.1339999400638595</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4385739874162493</v>
+        <v>0.2750683821468208</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016837650919973</v>
+        <v>1.006623340905944</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4572449900338705</v>
+        <v>0.2867786126448594</v>
       </c>
       <c r="P18" t="n">
-        <v>133.2969070118945</v>
+        <v>135.1629421994994</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.5238356283276</v>
+        <v>214.3898708159324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9710537014628557</v>
+        <v>0.988685118891373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7040122797758006</v>
+        <v>0.7543447603980508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9082638351437133</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9502532119422759</v>
+        <v>0.9683749006645104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.919430697239896</v>
+        <v>0.9802923510065515</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1935640316033326</v>
+        <v>0.07566266207362546</v>
       </c>
       <c r="H19" t="n">
-        <v>1.979271248037354</v>
+        <v>1.642697718356604</v>
       </c>
       <c r="I19" t="n">
-        <v>1.134213763573562</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07258962662547977</v>
+        <v>0.230786703519423</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6034017690502756</v>
+        <v>0.2364457854099755</v>
       </c>
       <c r="L19" t="n">
-        <v>1.735879411137975</v>
+        <v>0.1340007559007949</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4399591249233644</v>
+        <v>0.2750684679741127</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01694417475345</v>
+        <v>1.006623345039196</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4586890957122934</v>
+        <v>0.2867787021259967</v>
       </c>
       <c r="P19" t="n">
-        <v>133.2842938171462</v>
+        <v>135.162940951413</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.5112224335793</v>
+        <v>214.389869567846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9708872843680045</v>
+        <v>0.9886851155567141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7038836558394561</v>
+        <v>0.7543447601904958</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9077653087267373</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9493232740213304</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9189286022843065</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1946768634828831</v>
+        <v>0.07566268437250462</v>
       </c>
       <c r="H20" t="n">
-        <v>1.980131356891948</v>
+        <v>1.642697719744525</v>
       </c>
       <c r="I20" t="n">
-        <v>1.140377478009684</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07394657546784462</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6071620719703095</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L20" t="n">
-        <v>1.741535571996005</v>
+        <v>0.133999621066019</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4412220115575413</v>
+        <v>0.2750685085074346</v>
       </c>
       <c r="N20" t="n">
-        <v>1.017041589638241</v>
+        <v>1.006623346991192</v>
       </c>
       <c r="O20" t="n">
-        <v>0.460005746045023</v>
+        <v>0.286778744384906</v>
       </c>
       <c r="P20" t="n">
-        <v>133.2728284105773</v>
+        <v>135.1629403619842</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.4997570270103</v>
+        <v>214.3898689784172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9707355003513113</v>
+        <v>0.9886851171627328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7037666996552558</v>
+        <v>0.7543447598387971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9073151105260769</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9484766756075547</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9184745205771462</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1956918439014121</v>
+        <v>0.07566267363305096</v>
       </c>
       <c r="H21" t="n">
-        <v>1.980913443434229</v>
+        <v>1.642697722096336</v>
       </c>
       <c r="I21" t="n">
-        <v>1.145943668795238</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07518191678649221</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K21" t="n">
-        <v>0.610562792790865</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L21" t="n">
-        <v>1.74663305356981</v>
+        <v>0.1339995598701577</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4423707086838052</v>
+        <v>0.2750684889860177</v>
       </c>
       <c r="N21" t="n">
-        <v>1.017130438818745</v>
+        <v>1.006623346051083</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4612033455860828</v>
+        <v>0.286778724032422</v>
       </c>
       <c r="P21" t="n">
-        <v>133.2624281639742</v>
+        <v>135.1629406458613</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.4893567804073</v>
+        <v>214.3898692622944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9705971965176897</v>
+        <v>0.9886851171627328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7036604846024366</v>
+        <v>0.7543447584289007</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9069084820331335</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9477068443334412</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9180638757221372</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G22" t="n">
-        <v>0.19661668227367</v>
+        <v>0.07566267363305096</v>
       </c>
       <c r="H22" t="n">
-        <v>1.981623703981507</v>
+        <v>1.64269773152432</v>
       </c>
       <c r="I22" t="n">
-        <v>1.150971169498807</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07630524086296657</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6136382051808865</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L22" t="n">
-        <v>1.751234772700506</v>
+        <v>0.1339995598701577</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4434147970847049</v>
+        <v>0.2750684889860177</v>
       </c>
       <c r="N22" t="n">
-        <v>1.017211397160377</v>
+        <v>1.006623346051083</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4622918829917697</v>
+        <v>0.286778724032422</v>
       </c>
       <c r="P22" t="n">
-        <v>133.2529984419691</v>
+        <v>135.1629406458613</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.4799270584022</v>
+        <v>214.3898692622944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9704714226952982</v>
+        <v>0.988685117162738</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7035641141637408</v>
+        <v>0.7543447578671292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9065415849491423</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9470075113603614</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F23" t="n">
-        <v>0.91769289475756</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1974577324031377</v>
+        <v>0.07566267363301592</v>
       </c>
       <c r="H23" t="n">
-        <v>1.982268133548811</v>
+        <v>1.642697735280889</v>
       </c>
       <c r="I23" t="n">
-        <v>1.155507436336751</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07732569507488157</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6164165657058166</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L23" t="n">
-        <v>1.755381567807354</v>
+        <v>0.133999518934924</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4443621635593401</v>
+        <v>0.275068488985954</v>
       </c>
       <c r="N23" t="n">
-        <v>1.017285020861289</v>
+        <v>1.00662334605108</v>
       </c>
       <c r="O23" t="n">
-        <v>0.463279580818549</v>
+        <v>0.2867787240323557</v>
       </c>
       <c r="P23" t="n">
-        <v>133.2444614613874</v>
+        <v>135.1629406458623</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.4713900778205</v>
+        <v>214.3898692622953</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9703571411027513</v>
+        <v>0.988685117162738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.703476734291224</v>
+        <v>0.7543447577811043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9062104533381429</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9463734619908926</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9173577960179682</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1982219339387166</v>
+        <v>0.07566267363301592</v>
       </c>
       <c r="H24" t="n">
-        <v>1.982852443158678</v>
+        <v>1.642697735856137</v>
       </c>
       <c r="I24" t="n">
-        <v>1.159601503614778</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07825088861578841</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6189261961152832</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L24" t="n">
-        <v>1.759117835384948</v>
+        <v>0.133999518934924</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4452212191020511</v>
+        <v>0.275068488985954</v>
       </c>
       <c r="N24" t="n">
-        <v>1.017351917403267</v>
+        <v>1.00662334605108</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4641752081342035</v>
+        <v>0.2867787240323557</v>
       </c>
       <c r="P24" t="n">
-        <v>133.236735995049</v>
+        <v>135.1629406458623</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.463664611482</v>
+        <v>214.3898692622953</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_23</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.97025340001477</v>
+        <v>0.9886851171627392</v>
       </c>
       <c r="C25" t="n">
-        <v>0.703397563543359</v>
+        <v>0.7543447551032301</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9059117662075377</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9457980981570372</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9170552062076488</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1989156510717313</v>
+        <v>0.07566267363300792</v>
       </c>
       <c r="H25" t="n">
-        <v>1.983381858314199</v>
+        <v>1.642697753763095</v>
       </c>
       <c r="I25" t="n">
-        <v>1.163294431644475</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07909044926892855</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K25" t="n">
-        <v>0.621192359785421</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L25" t="n">
-        <v>1.762490102935291</v>
+        <v>0.1339995671197051</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4459996088246393</v>
+        <v>0.2750684889859395</v>
       </c>
       <c r="N25" t="n">
-        <v>1.017412643893793</v>
+        <v>1.006623346051079</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4649867355187711</v>
+        <v>0.2867787240323405</v>
       </c>
       <c r="P25" t="n">
-        <v>133.229748816149</v>
+        <v>135.1629406458625</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.4566774325821</v>
+        <v>214.3898692622955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_24</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9701593584947547</v>
+        <v>0.9886851171627424</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7033259545642354</v>
+        <v>0.7543447541178208</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9056423778028878</v>
+        <v>0.9844235069965442</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9452779557592937</v>
+        <v>0.9683748815665084</v>
       </c>
       <c r="F26" t="n">
-        <v>0.916782154551496</v>
+        <v>0.9802923451983715</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1995445071490953</v>
+        <v>0.07566267363298636</v>
       </c>
       <c r="H26" t="n">
-        <v>1.983860707887327</v>
+        <v>1.642697760352531</v>
       </c>
       <c r="I26" t="n">
-        <v>1.166625114116101</v>
+        <v>0.2421048673005281</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07984943178656301</v>
+        <v>0.2307868428886269</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6232373055243118</v>
+        <v>0.2364458550945776</v>
       </c>
       <c r="L26" t="n">
-        <v>1.765522742921997</v>
+        <v>0.1339994703642391</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4467040487270015</v>
+        <v>0.2750684889859003</v>
       </c>
       <c r="N26" t="n">
-        <v>1.017467692588436</v>
+        <v>1.006623346051078</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4657211648861684</v>
+        <v>0.2867787240322996</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2234359481094</v>
+        <v>135.162940645863</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.4503645645424</v>
+        <v>214.3898692622961</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9886852102940978</v>
+        <v>0.9787562398544446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7543448741129067</v>
+        <v>0.8222687809611389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9844236281657666</v>
+        <v>0.9251803593939654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9683751292811775</v>
+        <v>0.9571771888757565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9802924990218993</v>
+        <v>0.9413815854021527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07566205086318364</v>
+        <v>0.1420571219118499</v>
       </c>
       <c r="H2" t="n">
-        <v>1.642696957944839</v>
+        <v>1.188489480089878</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2421029839716883</v>
+        <v>0.576672183636143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2307850351709245</v>
+        <v>0.1919435443189161</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2364440095713063</v>
+        <v>0.3843077524928159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1340025149269516</v>
+        <v>0.4409925836805133</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2750673569567709</v>
+        <v>0.3769046589150232</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006623291535162</v>
+        <v>1.01243537179252</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2867775438103466</v>
+        <v>0.3929502705452383</v>
       </c>
       <c r="P2" t="n">
-        <v>135.1629571076753</v>
+        <v>133.9030520705674</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.3898857241084</v>
+        <v>213.1299806870004</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9886851924793799</v>
+        <v>0.9786552949609952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7543448726015567</v>
+        <v>0.8214317485170346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9844235958880764</v>
+        <v>0.9242759941790482</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9683751235934527</v>
+        <v>0.9527234314999293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9802924763842624</v>
+        <v>0.9393274980695414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0756621699902842</v>
+        <v>0.1427321408791545</v>
       </c>
       <c r="H3" t="n">
-        <v>1.642696968051244</v>
+        <v>1.194086719897783</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2421034856626596</v>
+        <v>0.5836425761569646</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2307850766775539</v>
+        <v>0.2119065022333909</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2364442811701068</v>
+        <v>0.3977745391951777</v>
       </c>
       <c r="L3" t="n">
-        <v>0.134001674328437</v>
+        <v>0.4343296337903512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2750675734983755</v>
+        <v>0.3777990747462923</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00662330196329</v>
+        <v>1.012494461486247</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2867777695705755</v>
+        <v>0.3938827635101406</v>
       </c>
       <c r="P3" t="n">
-        <v>135.1629539587518</v>
+        <v>133.8935710918986</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.3898825751849</v>
+        <v>213.1204997083317</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9886851731650472</v>
+        <v>0.9784865069956917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7543448685303917</v>
+        <v>0.8205948111339006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.984423569156612</v>
+        <v>0.9233992387606438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9683750496755449</v>
+        <v>0.9485561756970209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9802924365886857</v>
+        <v>0.9373876224549097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07566229914531587</v>
+        <v>0.1438608267803363</v>
       </c>
       <c r="H4" t="n">
-        <v>1.642696995275142</v>
+        <v>1.199683324032542</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2421039011488433</v>
+        <v>0.5904001662436151</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2307856160994253</v>
+        <v>0.2305852817878925</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2364447586241343</v>
+        <v>0.4104925433017254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1340012375317811</v>
+        <v>0.4282672221926926</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2750678082679176</v>
+        <v>0.3792898980731444</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006623313269241</v>
+        <v>1.012593264197644</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2867780143347431</v>
+        <v>0.3954370542724466</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1629505447625</v>
+        <v>133.8778178548837</v>
       </c>
       <c r="Q4" t="n">
-        <v>214.3898791611955</v>
+        <v>213.1047464713168</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9886851665894588</v>
+        <v>0.9782727988104536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7543448453988196</v>
+        <v>0.8197752660038884</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9844235619859062</v>
+        <v>0.9225631692502525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9683750567217266</v>
+        <v>0.9446817475320021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9802924340867848</v>
+        <v>0.9355717239946638</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0756623431163061</v>
+        <v>0.1452898943990595</v>
       </c>
       <c r="H5" t="n">
-        <v>1.642697149956072</v>
+        <v>1.205163626090593</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2421040126028632</v>
+        <v>0.5968441698010192</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2307855646793482</v>
+        <v>0.247951527830104</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2364447886411057</v>
+        <v>0.4223977417073791</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1340003204301987</v>
+        <v>0.4228097687800264</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2750678881954527</v>
+        <v>0.3811691152219176</v>
       </c>
       <c r="N5" t="n">
-        <v>1.006623317118366</v>
+        <v>1.01271836167193</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2867780976649589</v>
+        <v>0.3973962735857588</v>
       </c>
       <c r="P5" t="n">
-        <v>135.1629493824669</v>
+        <v>133.8580485214557</v>
       </c>
       <c r="Q5" t="n">
-        <v>214.3898779988999</v>
+        <v>213.0849771378887</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9886851680370951</v>
+        <v>0.9780311763060519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7543448327568568</v>
+        <v>0.8189849521119442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9844235381238531</v>
+        <v>0.921774934557992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9683750974388725</v>
+        <v>0.9410974778794162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9802924310132543</v>
+        <v>0.9338831153995639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07566233343595569</v>
+        <v>0.1469056251985631</v>
       </c>
       <c r="H6" t="n">
-        <v>1.642697234492935</v>
+        <v>1.210448458725084</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2421043834898924</v>
+        <v>0.6029194866232034</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2307852675427043</v>
+        <v>0.2640172041098791</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2364448255162984</v>
+        <v>0.4334684159737335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.134000689436382</v>
+        <v>0.4178167824295984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.275067870599159</v>
+        <v>0.3832826961898529</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006623316270969</v>
+        <v>1.012859799235482</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2867780793195545</v>
+        <v>0.3995998340712149</v>
       </c>
       <c r="P6" t="n">
-        <v>135.1629496383498</v>
+        <v>133.8359298076582</v>
       </c>
       <c r="Q6" t="n">
-        <v>214.3898782547828</v>
+        <v>213.0628584240912</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9886851516849912</v>
+        <v>0.9777745587253223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7543448190645186</v>
+        <v>0.8182317004771631</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9844235196557507</v>
+        <v>0.9210389466361845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9683750891106148</v>
+        <v>0.9377953779568002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9802924165177188</v>
+        <v>0.9323217129359346</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07566244278254981</v>
+        <v>0.148621628142517</v>
       </c>
       <c r="H7" t="n">
-        <v>1.642697326053664</v>
+        <v>1.21548545587527</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2421046705389396</v>
+        <v>0.6085921115992221</v>
       </c>
       <c r="J7" t="n">
-        <v>0.230785328318834</v>
+        <v>0.2788181185338113</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2364449994288868</v>
+        <v>0.4437051150665167</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1340003755783941</v>
+        <v>0.4132557435686202</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2750680693620214</v>
+        <v>0.3855147573602299</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006623325842932</v>
+        <v>1.013010014404689</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2867782865441634</v>
+        <v>0.4019269187066185</v>
       </c>
       <c r="P7" t="n">
-        <v>135.162946747968</v>
+        <v>133.8127032224855</v>
       </c>
       <c r="Q7" t="n">
-        <v>214.3898753644011</v>
+        <v>213.0396318389185</v>
       </c>
     </row>
     <row r="8">
@@ -852,162 +852,162 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9886851243440673</v>
+        <v>0.9775123336944803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7543448150810214</v>
+        <v>0.8175203185109906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9844234929242205</v>
+        <v>0.9203561834112216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9683749250772833</v>
+        <v>0.9347636927144679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9802923493157456</v>
+        <v>0.9308840244444099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07566262561143348</v>
+        <v>0.1503751281311924</v>
       </c>
       <c r="H8" t="n">
-        <v>1.642697352691328</v>
+        <v>1.220242470358678</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2421050860261465</v>
+        <v>0.6138545073639786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2307865253652512</v>
+        <v>0.2924069604476288</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2364458056956989</v>
+        <v>0.4531307339058037</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1339998834736447</v>
+        <v>0.4090861906129657</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2750684016957118</v>
+        <v>0.3877823205500638</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006623341847375</v>
+        <v>1.013163511983719</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2867786330259871</v>
+        <v>0.4042910167559465</v>
       </c>
       <c r="P8" t="n">
-        <v>135.1629419152226</v>
+        <v>133.7892445052198</v>
       </c>
       <c r="Q8" t="n">
-        <v>214.3898705316556</v>
+        <v>213.0161731216529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9886851416137991</v>
+        <v>0.9772513240103168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7543447937919934</v>
+        <v>0.8168533401366058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9844235123777926</v>
+        <v>0.9197260836667476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9683750303757146</v>
+        <v>0.9319881478229832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9802923939406732</v>
+        <v>0.9295648512640018</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0756625101286581</v>
+        <v>0.152120501091033</v>
       </c>
       <c r="H9" t="n">
-        <v>1.642697495051156</v>
+        <v>1.224702557819343</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2421047836599797</v>
+        <v>0.618710999491062</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2307857569414875</v>
+        <v>0.3048477112975005</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2364452703007336</v>
+        <v>0.4617793553942813</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1340000099292576</v>
+        <v>0.4052876301499844</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2750681917791625</v>
+        <v>0.3900262825644356</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006623331738264</v>
+        <v>1.013316298140302</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2867784141728557</v>
+        <v>0.4066305088789118</v>
       </c>
       <c r="P9" t="n">
-        <v>135.1629449677961</v>
+        <v>133.7661646037531</v>
       </c>
       <c r="Q9" t="n">
-        <v>214.3898735842292</v>
+        <v>212.9930932201861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9886851443343446</v>
+        <v>0.9769964636014656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7543447917244545</v>
+        <v>0.8162317759620851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9844235065492219</v>
+        <v>0.9191473475491998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9683750270986546</v>
+        <v>0.9294528051288691</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9802923891685837</v>
+        <v>0.9283579810222237</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07566249193635692</v>
+        <v>0.1538247538185449</v>
       </c>
       <c r="H10" t="n">
-        <v>1.642697508876799</v>
+        <v>1.228858960316403</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2421048742532415</v>
+        <v>0.6231716065983954</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2307857808560957</v>
+        <v>0.316211810243724</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2364453275546686</v>
+        <v>0.4696917084210598</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1339993564617966</v>
+        <v>0.4018358866128662</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2750681587104493</v>
+        <v>0.3922049895380538</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006623330145749</v>
+        <v>1.013465484721093</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2867783796963389</v>
+        <v>0.4089019679189421</v>
       </c>
       <c r="P10" t="n">
-        <v>135.1629454486763</v>
+        <v>133.7438825735128</v>
       </c>
       <c r="Q10" t="n">
-        <v>214.3898740651094</v>
+        <v>212.9708111899458</v>
       </c>
     </row>
     <row r="11">
@@ -1017,877 +1017,877 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9886851433885168</v>
+        <v>0.9767510793728883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7543447789877734</v>
+        <v>0.8156552160749728</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9844235355239653</v>
+        <v>0.918617461165769</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9683749710051255</v>
+        <v>0.9271415117792546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9802923908775141</v>
+        <v>0.9272563885455728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07566249826111285</v>
+        <v>0.1554656392849318</v>
       </c>
       <c r="H11" t="n">
-        <v>1.642697594047044</v>
+        <v>1.232714418936337</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2421044238998539</v>
+        <v>0.6272557045082079</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2307861902031326</v>
+        <v>0.3265716587879635</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2364453070514932</v>
+        <v>0.4769138506739526</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1340000069146822</v>
+        <v>0.3986921903034829</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2750681702071558</v>
+        <v>0.394291312718061</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006623330699405</v>
+        <v>1.013609124269529</v>
       </c>
       <c r="O11" t="n">
-        <v>0.286778391682484</v>
+        <v>0.4110771101960066</v>
       </c>
       <c r="P11" t="n">
-        <v>135.162945281493</v>
+        <v>133.7226610820178</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.389873897926</v>
+        <v>212.9495896984508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_12</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9886851158227355</v>
+        <v>0.9765174267066583</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7543447672426331</v>
+        <v>0.8151226573775814</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9181336977647085</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9683748922882291</v>
+        <v>0.9250380987415201</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9802923484591149</v>
+        <v>0.9262530108891127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07566268259361866</v>
+        <v>0.1570280757398837</v>
       </c>
       <c r="H12" t="n">
-        <v>1.642697672586851</v>
+        <v>1.236275641398001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6309843096524339</v>
       </c>
       <c r="J12" t="n">
-        <v>0.230786764646008</v>
+        <v>0.3359997309539405</v>
       </c>
       <c r="K12" t="n">
-        <v>0.236445815973268</v>
+        <v>0.4834920874737897</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1340010299670478</v>
+        <v>0.3958433160367535</v>
       </c>
       <c r="M12" t="n">
-        <v>0.275068505273902</v>
+        <v>0.3962676819271081</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006623346835472</v>
+        <v>1.013745896561956</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2867787410137153</v>
+        <v>0.4131376175339311</v>
       </c>
       <c r="P12" t="n">
-        <v>135.1629404090057</v>
+        <v>133.7026613265053</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.3898690254387</v>
+        <v>212.9295899429384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_23</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9886851187687699</v>
+        <v>0.9762967969304791</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7543447664582238</v>
+        <v>0.8146323705811226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9176927983381648</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9683748907643256</v>
+        <v>0.923126381272142</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9802923479956577</v>
+        <v>0.9253403531639839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07566266289347368</v>
+        <v>0.1585034280691006</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6426976778322</v>
+        <v>1.239554191463483</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6343825408255525</v>
       </c>
       <c r="J13" t="n">
-        <v>0.230786775766817</v>
+        <v>0.3445685711859425</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2364458215336726</v>
+        <v>0.4894755560057475</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1339993979587673</v>
+        <v>0.3932561446568914</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2750684694643747</v>
+        <v>0.3981248900396716</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006623345110964</v>
+        <v>1.013875045699232</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2867787036797023</v>
+        <v>0.4150738908407973</v>
       </c>
       <c r="P13" t="n">
-        <v>135.1629409297418</v>
+        <v>133.6839581154049</v>
       </c>
       <c r="Q13" t="n">
-        <v>214.3898695461749</v>
+        <v>212.910886731838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_24</t>
+          <t>model_6_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9886851187687699</v>
+        <v>0.976090024635221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7543447664582238</v>
+        <v>0.8141822803712508</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9172920432903776</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9683748907643256</v>
+        <v>0.9213913718846637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9802923479956577</v>
+        <v>0.9245116783475414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07566266289347368</v>
+        <v>0.1598861153595907</v>
       </c>
       <c r="H14" t="n">
-        <v>1.6426976778322</v>
+        <v>1.242563946769371</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6374713593047469</v>
       </c>
       <c r="J14" t="n">
-        <v>0.230786775766817</v>
+        <v>0.352345357494832</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2364458215336726</v>
+        <v>0.4949084248139411</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1339993979587673</v>
+        <v>0.3909108944086359</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2750684694643747</v>
+        <v>0.3998576188590018</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006623345110964</v>
+        <v>1.013996083140358</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2867787036797023</v>
+        <v>0.4168803855132094</v>
       </c>
       <c r="P14" t="n">
-        <v>135.1629409297418</v>
+        <v>133.6665869923716</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.3898695461749</v>
+        <v>212.8935156088046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9886851178682124</v>
+        <v>0.9758971861546832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7543447650432058</v>
+        <v>0.8137701499710719</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9169277935588915</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9683748856072023</v>
+        <v>0.9198178963084391</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9802923464272476</v>
+        <v>0.9237597310565924</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0756626689155047</v>
+        <v>0.1611756271668863</v>
       </c>
       <c r="H15" t="n">
-        <v>1.642697687294431</v>
+        <v>1.245319864653054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6402788131543448</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2307868134013384</v>
+        <v>0.3593981051092642</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2364458403509332</v>
+        <v>0.4998382608622247</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1340008725270817</v>
+        <v>0.3887917238689764</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2750684804107965</v>
+        <v>0.4014668444179249</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00662334563812</v>
+        <v>1.014108964202137</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2867787150921358</v>
+        <v>0.418558119135732</v>
       </c>
       <c r="P15" t="n">
-        <v>135.1629407705608</v>
+        <v>133.6505213131522</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.3898693869938</v>
+        <v>212.8774499295853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9886851190347816</v>
+        <v>0.9757183341334972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7543447644999841</v>
+        <v>0.8133935098603177</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9165978165184366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9683749106838696</v>
+        <v>0.9183923034958967</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9802923540536892</v>
+        <v>0.9230783912608446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07566266111465184</v>
+        <v>0.1623716114560952</v>
       </c>
       <c r="H16" t="n">
-        <v>1.642697690926957</v>
+        <v>1.247838458807935</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6428221103277558</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2307866304023437</v>
+        <v>0.3657880017557282</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2364457488514359</v>
+        <v>0.5043051876357331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1340008688597838</v>
+        <v>0.386866309244388</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2750684662309583</v>
+        <v>0.4029536095583401</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00662334495525</v>
+        <v>1.014213658068197</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2867787003086326</v>
+        <v>0.4201081789462028</v>
       </c>
       <c r="P16" t="n">
-        <v>135.1629409767616</v>
+        <v>133.6357353456796</v>
       </c>
       <c r="Q16" t="n">
-        <v>214.3898695931947</v>
+        <v>212.8626639621126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9886851259524102</v>
+        <v>0.9755530528082276</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7543447644660292</v>
+        <v>0.8130499315406939</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9844235373134318</v>
+        <v>0.9162985548840599</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9683748857307349</v>
+        <v>0.9171022776861344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9802923661025655</v>
+        <v>0.9224615189950297</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07566261485643709</v>
+        <v>0.1634768484392236</v>
       </c>
       <c r="H17" t="n">
-        <v>1.642697691154014</v>
+        <v>1.250135968613292</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2421043960862402</v>
+        <v>0.6451286685894195</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2307868124998489</v>
+        <v>0.3715702500408826</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2364456042930445</v>
+        <v>0.5083494593151511</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1339999188702367</v>
+        <v>0.3851298586982608</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2750683821460349</v>
+        <v>0.4043227033437816</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006623340905906</v>
+        <v>1.014310408112257</v>
       </c>
       <c r="O17" t="n">
-        <v>0.28677861264404</v>
+        <v>0.4215355578885054</v>
       </c>
       <c r="P17" t="n">
-        <v>135.1629421995108</v>
+        <v>133.6221677968622</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.3898708159439</v>
+        <v>212.8490964132953</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9886851259523456</v>
+        <v>0.9754008521356706</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7543447640238555</v>
+        <v>0.8127370403255112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9844235373134318</v>
+        <v>0.9160280618811018</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9683748857307349</v>
+        <v>0.9159348679878802</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9802923661025655</v>
+        <v>0.9219034523273296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07566261485686945</v>
+        <v>0.1644946150374315</v>
       </c>
       <c r="H18" t="n">
-        <v>1.642697694110831</v>
+        <v>1.25222827360995</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2421043960862402</v>
+        <v>0.6472134926999161</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2307868124998489</v>
+        <v>0.3768028993993072</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2364456042930445</v>
+        <v>0.5120081960496116</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1339999400638595</v>
+        <v>0.3835568829577836</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2750683821468208</v>
+        <v>0.4055793572624617</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006623340905944</v>
+        <v>1.014399501188876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2867786126448594</v>
+        <v>0.422845710166136</v>
       </c>
       <c r="P18" t="n">
-        <v>135.1629421994994</v>
+        <v>133.6097548892946</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.3898708159324</v>
+        <v>212.8366835057276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.988685118891373</v>
+        <v>0.9752610434096245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7543447603980508</v>
+        <v>0.8124524676414161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9157831369847228</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9683749006645104</v>
+        <v>0.9148796167861962</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9802923510065515</v>
+        <v>0.9213987551891868</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07566266207362546</v>
+        <v>0.1654295166322617</v>
       </c>
       <c r="H19" t="n">
-        <v>1.642697718356604</v>
+        <v>1.254131212458831</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6491012506960476</v>
       </c>
       <c r="J19" t="n">
-        <v>0.230786703519423</v>
+        <v>0.3815328237195564</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2364457854099755</v>
+        <v>0.515317037207802</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1340007559007949</v>
+        <v>0.3821355391394177</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2750684679741127</v>
+        <v>0.4067302750377229</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006623345039196</v>
+        <v>1.014481340443147</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2867787021259967</v>
+        <v>0.4240456248938183</v>
       </c>
       <c r="P19" t="n">
-        <v>135.162940951413</v>
+        <v>133.5984201125086</v>
       </c>
       <c r="Q19" t="n">
-        <v>214.389869567846</v>
+        <v>212.8253487289417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9886851155567141</v>
+        <v>0.9751329411443292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7543447601904958</v>
+        <v>0.8121939395120903</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9155617112004103</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9139259661913893</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9209426022889731</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07566268437250462</v>
+        <v>0.1662861370701478</v>
       </c>
       <c r="H20" t="n">
-        <v>1.642697719744525</v>
+        <v>1.255859991250046</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6508078893475909</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.3858073463490492</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5183076178483201</v>
       </c>
       <c r="L20" t="n">
-        <v>0.133999621066019</v>
+        <v>0.3808538995705086</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2750685085074346</v>
+        <v>0.4077819724683128</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006623346991192</v>
+        <v>1.014556327135027</v>
       </c>
       <c r="O20" t="n">
-        <v>0.286778744384906</v>
+        <v>0.4251420952613422</v>
       </c>
       <c r="P20" t="n">
-        <v>135.1629403619842</v>
+        <v>133.5880905144625</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.3898689784172</v>
+        <v>212.8150191308955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9886851171627328</v>
+        <v>0.9750158652854697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7543447598387971</v>
+        <v>0.8119593404992299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9153619058128883</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.913064547796835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9205306867966964</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07566267363305096</v>
+        <v>0.1670690238774264</v>
       </c>
       <c r="H21" t="n">
-        <v>1.642697722096336</v>
+        <v>1.257428755929272</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6523478888476049</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.3896684590469653</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.521008173947285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1339995598701577</v>
+        <v>0.3796971846587182</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2750684889860177</v>
+        <v>0.4087407783393118</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006623346051083</v>
+        <v>1.014624859345091</v>
       </c>
       <c r="O21" t="n">
-        <v>0.286778724032422</v>
+        <v>0.4261417194832713</v>
       </c>
       <c r="P21" t="n">
-        <v>135.1629406458613</v>
+        <v>133.5786964706517</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.3898692622944</v>
+        <v>212.8056250870848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9886851171627328</v>
+        <v>0.9749089916175302</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7543447584289007</v>
+        <v>0.8117466136508057</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9151813299927384</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9122867409052885</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9201586662989374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07566267363305096</v>
+        <v>0.1677836885870462</v>
       </c>
       <c r="H22" t="n">
-        <v>1.64269773152432</v>
+        <v>1.258851261344201</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6537396765075605</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.3931548021346702</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5234471747690547</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1339995598701577</v>
+        <v>0.3786527215268071</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2750684889860177</v>
+        <v>0.4096140727404836</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006623346051083</v>
+        <v>1.014687419540958</v>
       </c>
       <c r="O22" t="n">
-        <v>0.286778724032422</v>
+        <v>0.4270521918350696</v>
       </c>
       <c r="P22" t="n">
-        <v>135.1629406458613</v>
+        <v>133.5701593942819</v>
       </c>
       <c r="Q22" t="n">
-        <v>214.3898692622944</v>
+        <v>212.7970880107149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.988685117162738</v>
+        <v>0.9748116538947671</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7543447578671292</v>
+        <v>0.8115539366521185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9150184053413752</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9115849490554262</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9198229866793671</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07566267363301592</v>
+        <v>0.1684345863873617</v>
       </c>
       <c r="H23" t="n">
-        <v>1.642697735280889</v>
+        <v>1.260139693321619</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6549954178304099</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.3963004250281765</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5256479214292933</v>
       </c>
       <c r="L23" t="n">
-        <v>0.133999518934924</v>
+        <v>0.3777093955406803</v>
       </c>
       <c r="M23" t="n">
-        <v>0.275068488985954</v>
+        <v>0.4104078293446187</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00662334605108</v>
+        <v>1.014744397720136</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2867787240323557</v>
+        <v>0.4278797403011455</v>
       </c>
       <c r="P23" t="n">
-        <v>135.1629406458623</v>
+        <v>133.5624156318285</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.3898692622953</v>
+        <v>212.7893442482615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.988685117162738</v>
+        <v>0.9747230715503042</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7543447577811043</v>
+        <v>0.811379515309292</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9148713371051158</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9109516499629711</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9195200510789847</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07566267363301592</v>
+        <v>0.169026936932669</v>
       </c>
       <c r="H24" t="n">
-        <v>1.642697735856137</v>
+        <v>1.261306049644236</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6561289458754558</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.3991390446616964</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5276339952685761</v>
       </c>
       <c r="L24" t="n">
-        <v>0.133999518934924</v>
+        <v>0.3768563375932931</v>
       </c>
       <c r="M24" t="n">
-        <v>0.275068488985954</v>
+        <v>0.4111288568474232</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00662334605108</v>
+        <v>1.014796250799822</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2867787240323557</v>
+        <v>0.4286314634374771</v>
       </c>
       <c r="P24" t="n">
-        <v>135.1629406458623</v>
+        <v>133.5553943732524</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.3898692622953</v>
+        <v>212.7823229896854</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9886851171627392</v>
+        <v>0.9746426374295794</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7543447551032301</v>
+        <v>0.8112216886710755</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9147389422148866</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9103805539701996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9192470139584199</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07566267363300792</v>
+        <v>0.1695648002683215</v>
       </c>
       <c r="H25" t="n">
-        <v>1.642697753763095</v>
+        <v>1.262361437100715</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6571493791444789</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.401698853000314</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5294240519064305</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1339995671197051</v>
+        <v>0.3760889816992868</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2750684889859395</v>
+        <v>0.4117824671696471</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006623346051079</v>
+        <v>1.014843334187563</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2867787240323405</v>
+        <v>0.4293128993042779</v>
       </c>
       <c r="P25" t="n">
-        <v>135.1629406458625</v>
+        <v>133.5490402455053</v>
       </c>
       <c r="Q25" t="n">
-        <v>214.3898692622955</v>
+        <v>212.7759688619383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9886851171627424</v>
+        <v>0.9745695503662805</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7543447541178208</v>
+        <v>0.8110789960487794</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9844235069965442</v>
+        <v>0.9146192268851778</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9683748815665084</v>
+        <v>0.9098654227663838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9802923451983715</v>
+        <v>0.9190005414792836</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07566267363298636</v>
+        <v>0.1700535337971361</v>
       </c>
       <c r="H26" t="n">
-        <v>1.642697760352531</v>
+        <v>1.263315623323048</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2421048673005281</v>
+        <v>0.6580720847340633</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2307868428886269</v>
+        <v>0.404007811857844</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2364458550945776</v>
+        <v>0.5310399482959536</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1339994703642391</v>
+        <v>0.3753984941208302</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2750684889859003</v>
+        <v>0.4123754767164703</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006623346051078</v>
+        <v>1.014886116858763</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2867787240322996</v>
+        <v>0.4299311544952084</v>
       </c>
       <c r="P26" t="n">
-        <v>135.162940645863</v>
+        <v>133.5432839736298</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.3898692622961</v>
+        <v>212.7702125900629</v>
       </c>
     </row>
   </sheetData>
